--- a/tmp/management_name_list (1).xlsx
+++ b/tmp/management_name_list (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE0E83A-E196-4E90-A201-FC95C15C2C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D122568D-76B8-4FA1-9345-00C48B9EFA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>#</t>
   </si>
@@ -49,19 +49,19 @@
     <t>Password Prompt</t>
   </si>
   <si>
+    <t>laki</t>
+  </si>
+  <si>
     <t>testing</t>
   </si>
   <si>
     <t>1234567</t>
   </si>
   <si>
-    <t>perempuan</t>
-  </si>
-  <si>
-    <t>salsabila1</t>
-  </si>
-  <si>
-    <t>salsabila1@gmail.com</t>
+    <t>test80</t>
+  </si>
+  <si>
+    <t>testing80@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -429,14 +429,12 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="27.36328125" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -479,24 +477,24 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>1234567</v>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{402B54D1-6B7A-4970-B8EC-3ECF8011B255}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9F783C03-97A9-4D0A-95BC-F63A28CBE030}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
